--- a/excel/2006-01-02.xlsx
+++ b/excel/2006-01-02.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="John5月報表" sheetId="2" r:id="rId4"/>
-    <sheet name="JASON5月報表" sheetId="3" r:id="rId6"/>
+    <sheet name="王登翊6月報表" sheetId="2" r:id="rId4"/>
+    <sheet name="陳峙遊6月報表" sheetId="3" r:id="rId6"/>
+    <sheet name="王哈哈6月報表" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>日期</t>
   </si>
@@ -60,46 +61,73 @@
     <t>業主</t>
   </si>
   <si>
-    <t>113530</t>
-  </si>
-  <si>
-    <t>aaa-2234</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>pointA</t>
+    <t>11365</t>
+  </si>
+  <si>
+    <t>KEP-0171</t>
+  </si>
+  <si>
+    <t>王登翊</t>
+  </si>
+  <si>
+    <t>戲曲</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>pointB</t>
+    <t>台北港</t>
   </si>
   <si>
     <t>cmp1</t>
   </si>
   <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>aaa-2232</t>
-  </si>
-  <si>
-    <t>JASON</t>
-  </si>
-  <si>
-    <t>taipei</t>
-  </si>
-  <si>
-    <t>kaoshong</t>
-  </si>
-  <si>
-    <t>wkw</t>
-  </si>
-  <si>
-    <t>113531</t>
+    <t>永豐哥</t>
+  </si>
+  <si>
+    <t>11366</t>
+  </si>
+  <si>
+    <t>昆陽</t>
+  </si>
+  <si>
+    <t>113611</t>
+  </si>
+  <si>
+    <t>KEQ-8007</t>
+  </si>
+  <si>
+    <t>陳峙遊</t>
+  </si>
+  <si>
+    <t>Ski-1207</t>
+  </si>
+  <si>
+    <t>王哈哈</t>
+  </si>
+  <si>
+    <t>點</t>
+  </si>
+  <si>
+    <t>線</t>
+  </si>
+  <si>
+    <t>面</t>
+  </si>
+  <si>
+    <t>拖鞋</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>那</t>
+  </si>
+  <si>
+    <t>誒好</t>
+  </si>
+  <si>
+    <t>庫克</t>
   </si>
 </sst>
 </file>
@@ -483,13 +511,13 @@
         <v>19</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -498,12 +526,56 @@
         <v>18</v>
       </c>
       <c r="L2">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3300</v>
+      </c>
+      <c r="I3">
+        <v>3300</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -564,31 +636,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="I2">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -597,42 +669,141 @@
         <v>18</v>
       </c>
       <c r="L2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="I3">
-        <v>1000</v>
+        <v>60000</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -640,14 +811,14 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
+      <c r="L3">
+        <v>3000</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2006-01-02.xlsx
+++ b/excel/2006-01-02.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="王登翊6月報表" sheetId="2" r:id="rId4"/>
-    <sheet name="陳峙遊6月報表" sheetId="3" r:id="rId6"/>
-    <sheet name="王哈哈6月報表" sheetId="4" r:id="rId7"/>
+    <sheet name="John11月報表" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -55,79 +53,46 @@
     <t>油資</t>
   </si>
   <si>
+    <t>維修</t>
+  </si>
+  <si>
     <t>備註</t>
   </si>
   <si>
     <t>業主</t>
   </si>
   <si>
-    <t>11365</t>
-  </si>
-  <si>
-    <t>KEP-0171</t>
-  </si>
-  <si>
-    <t>王登翊</t>
-  </si>
-  <si>
-    <t>戲曲</t>
+    <t>1131112</t>
+  </si>
+  <si>
+    <t>aaa-2234</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>台北港</t>
-  </si>
-  <si>
-    <t>cmp1</t>
-  </si>
-  <si>
-    <t>永豐哥</t>
-  </si>
-  <si>
-    <t>11366</t>
-  </si>
-  <si>
-    <t>昆陽</t>
-  </si>
-  <si>
-    <t>113611</t>
-  </si>
-  <si>
-    <t>KEQ-8007</t>
-  </si>
-  <si>
-    <t>陳峙遊</t>
-  </si>
-  <si>
-    <t>Ski-1207</t>
-  </si>
-  <si>
-    <t>王哈哈</t>
-  </si>
-  <si>
-    <t>點</t>
-  </si>
-  <si>
-    <t>線</t>
-  </si>
-  <si>
-    <t>面</t>
-  </si>
-  <si>
-    <t>拖鞋</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>那</t>
-  </si>
-  <si>
-    <t>誒好</t>
-  </si>
-  <si>
-    <t>庫克</t>
+    <t>1131114</t>
+  </si>
+  <si>
+    <t>1131116</t>
+  </si>
+  <si>
+    <t>pointA</t>
+  </si>
+  <si>
+    <t>pointB</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>1131119</t>
   </si>
 </sst>
 </file>
@@ -490,37 +455,40 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -528,297 +496,155 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>3000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>3300</v>
-      </c>
-      <c r="I3">
-        <v>3300</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>3300</v>
-      </c>
-      <c r="I2">
-        <v>3300</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>60000</v>
-      </c>
-      <c r="I3">
-        <v>60000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>3000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2006-01-02.xlsx
+++ b/excel/2006-01-02.xlsx
@@ -8,9 +8,90 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="John11月報表" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>車號</t>
+  </si>
+  <si>
+    <t>駕駛</t>
+  </si>
+  <si>
+    <t>發貨地</t>
+  </si>
+  <si>
+    <t>中轉</t>
+  </si>
+  <si>
+    <t>卸貨地</t>
+  </si>
+  <si>
+    <t>趟次</t>
+  </si>
+  <si>
+    <t>運費</t>
+  </si>
+  <si>
+    <t>應收款</t>
+  </si>
+  <si>
+    <t>甲方</t>
+  </si>
+  <si>
+    <t>司機運費</t>
+  </si>
+  <si>
+    <t>油資</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>業主</t>
+  </si>
+  <si>
+    <t>1131114</t>
+  </si>
+  <si>
+    <t>aaa-2234</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1131116</t>
+  </si>
+  <si>
+    <t>pointA</t>
+  </si>
+  <si>
+    <t>pointB</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>1131119</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,4 +400,203 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>5467</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>3000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/excel/2006-01-02.xlsx
+++ b/excel/2006-01-02.xlsx
@@ -8,90 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="John11月報表" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>車號</t>
-  </si>
-  <si>
-    <t>駕駛</t>
-  </si>
-  <si>
-    <t>發貨地</t>
-  </si>
-  <si>
-    <t>中轉</t>
-  </si>
-  <si>
-    <t>卸貨地</t>
-  </si>
-  <si>
-    <t>趟次</t>
-  </si>
-  <si>
-    <t>運費</t>
-  </si>
-  <si>
-    <t>應收款</t>
-  </si>
-  <si>
-    <t>甲方</t>
-  </si>
-  <si>
-    <t>司機運費</t>
-  </si>
-  <si>
-    <t>油資</t>
-  </si>
-  <si>
-    <t>維修</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
-    <t>業主</t>
-  </si>
-  <si>
-    <t>1131114</t>
-  </si>
-  <si>
-    <t>aaa-2234</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1131116</t>
-  </si>
-  <si>
-    <t>pointA</t>
-  </si>
-  <si>
-    <t>pointB</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>1131119</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,203 +319,4 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>5467</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-      <c r="I3">
-        <v>3000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>24</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>
--- a/excel/2006-01-02.xlsx
+++ b/excel/2006-01-02.xlsx
@@ -8,9 +8,91 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JJ11月報表" sheetId="2" r:id="rId4"/>
+    <sheet name="總和" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>車號</t>
+  </si>
+  <si>
+    <t>駕駛</t>
+  </si>
+  <si>
+    <t>發貨地</t>
+  </si>
+  <si>
+    <t>中轉</t>
+  </si>
+  <si>
+    <t>卸貨地</t>
+  </si>
+  <si>
+    <t>趟次</t>
+  </si>
+  <si>
+    <t>運費</t>
+  </si>
+  <si>
+    <t>應收款</t>
+  </si>
+  <si>
+    <t>甲方</t>
+  </si>
+  <si>
+    <t>司機運費</t>
+  </si>
+  <si>
+    <t>油資</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
+    <t>業主</t>
+  </si>
+  <si>
+    <t>1131124</t>
+  </si>
+  <si>
+    <t>qwer232</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>應收款總和</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,4 +401,130 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>5000</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/excel/2006-01-02.xlsx
+++ b/excel/2006-01-02.xlsx
@@ -8,15 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="JJ11月報表" sheetId="2" r:id="rId4"/>
-    <sheet name="總和" sheetId="3" r:id="rId6"/>
+    <sheet name="陽孟青2月報表" sheetId="2" r:id="rId4"/>
+    <sheet name="林李勝2月報表" sheetId="3" r:id="rId6"/>
+    <sheet name="王登翊2月報表" sheetId="4" r:id="rId7"/>
+    <sheet name="張浩宇2月報表" sheetId="5" r:id="rId8"/>
+    <sheet name="詹智勝3月報表" sheetId="6" r:id="rId9"/>
+    <sheet name="林長億2月報表" sheetId="7" r:id="rId10"/>
+    <sheet name="張國祥2月報表" sheetId="8" r:id="rId11"/>
+    <sheet name="總和" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>日期</t>
   </si>
@@ -63,31 +69,157 @@
     <t>業主</t>
   </si>
   <si>
-    <t>1131124</t>
-  </si>
-  <si>
-    <t>qwer232</t>
-  </si>
-  <si>
-    <t>JJ</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>11426</t>
+  </si>
+  <si>
+    <t>KEQ8006</t>
+  </si>
+  <si>
+    <t>陽孟青</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>567</t>
+    <t>11428</t>
+  </si>
+  <si>
+    <t>114224</t>
+  </si>
+  <si>
+    <t>114228</t>
+  </si>
+  <si>
+    <t>11431</t>
+  </si>
+  <si>
+    <t>戲曲</t>
+  </si>
+  <si>
+    <t>港</t>
+  </si>
+  <si>
+    <t>昆宏</t>
+  </si>
+  <si>
+    <t>永豐哥</t>
+  </si>
+  <si>
+    <t>11432</t>
+  </si>
+  <si>
+    <t>11433</t>
+  </si>
+  <si>
+    <t>玉成段</t>
+  </si>
+  <si>
+    <t>11434</t>
+  </si>
+  <si>
+    <t>11435</t>
+  </si>
+  <si>
+    <t>11436</t>
+  </si>
+  <si>
+    <t>大龍</t>
+  </si>
+  <si>
+    <t>11437</t>
+  </si>
+  <si>
+    <t>11438</t>
+  </si>
+  <si>
+    <t>114310</t>
+  </si>
+  <si>
+    <t>114311</t>
+  </si>
+  <si>
+    <t>南港調車場2</t>
+  </si>
+  <si>
+    <t>喜樂氏</t>
+  </si>
+  <si>
+    <t>KEQ8007</t>
+  </si>
+  <si>
+    <t>林李勝</t>
+  </si>
+  <si>
+    <t>11425</t>
+  </si>
+  <si>
+    <t>KEP0171</t>
+  </si>
+  <si>
+    <t>王登翊</t>
+  </si>
+  <si>
+    <t>114218</t>
+  </si>
+  <si>
+    <t>114226</t>
+  </si>
+  <si>
+    <t>辛亥段</t>
+  </si>
+  <si>
+    <t>KEP0136</t>
+  </si>
+  <si>
+    <t>張浩宇</t>
+  </si>
+  <si>
+    <t>11427</t>
+  </si>
+  <si>
+    <t>114312</t>
+  </si>
+  <si>
+    <t>KEA0379</t>
+  </si>
+  <si>
+    <t>詹智勝</t>
+  </si>
+  <si>
+    <t>KEG1527</t>
+  </si>
+  <si>
+    <t>林長億</t>
+  </si>
+  <si>
+    <t>西松國小</t>
+  </si>
+  <si>
+    <t>九九</t>
+  </si>
+  <si>
+    <t>KEA0378</t>
+  </si>
+  <si>
+    <t>張國祥</t>
+  </si>
+  <si>
+    <t>11439</t>
+  </si>
+  <si>
+    <t>學府路</t>
+  </si>
+  <si>
+    <t>大山</t>
+  </si>
+  <si>
+    <t>公道五</t>
+  </si>
+  <si>
+    <t>阿受</t>
+  </si>
+  <si>
+    <t>114315</t>
   </si>
   <si>
     <t>應收款總和</t>
@@ -471,37 +603,742 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>8300</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>6427</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3300</v>
+      </c>
+      <c r="I6">
+        <v>13200</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>5770</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3300</v>
+      </c>
+      <c r="I7">
+        <v>9900</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3300</v>
+      </c>
+      <c r="I8">
+        <v>9900</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3500</v>
+      </c>
+      <c r="I9">
+        <v>3500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3500</v>
+      </c>
+      <c r="I10">
+        <v>10500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>3500</v>
+      </c>
+      <c r="I11">
+        <v>10500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2700</v>
+      </c>
+      <c r="I12">
+        <v>8100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2700</v>
+      </c>
+      <c r="I13">
+        <v>10800</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2700</v>
+      </c>
+      <c r="I14">
+        <v>10800</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>5000</v>
-      </c>
-      <c r="I2">
-        <v>10000</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="H15">
+        <v>3500</v>
+      </c>
+      <c r="I15">
+        <v>7000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3000</v>
+      </c>
+      <c r="I16">
+        <v>3000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3300</v>
+      </c>
+      <c r="I17">
+        <v>6600</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -517,12 +1354,4214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>30630</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>8584</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3300</v>
+      </c>
+      <c r="I6">
+        <v>3300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>6860</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3500</v>
+      </c>
+      <c r="I7">
+        <v>10500</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>6860</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3500</v>
+      </c>
+      <c r="I8">
+        <v>14000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3500</v>
+      </c>
+      <c r="I9">
+        <v>10500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3500</v>
+      </c>
+      <c r="I10">
+        <v>10500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>2700</v>
+      </c>
+      <c r="I11">
+        <v>10800</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2700</v>
+      </c>
+      <c r="I12">
+        <v>10800</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2700</v>
+      </c>
+      <c r="I13">
+        <v>10800</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3500</v>
+      </c>
+      <c r="I14">
+        <v>7000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2700</v>
+      </c>
+      <c r="I15">
+        <v>5400</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>13924</v>
+      </c>
+      <c r="M3">
+        <v>600</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>19577</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>18969</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>7104</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>5350</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3300</v>
+      </c>
+      <c r="I9">
+        <v>13200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3300</v>
+      </c>
+      <c r="I10">
+        <v>13200</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3500</v>
+      </c>
+      <c r="I11">
+        <v>3500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3300</v>
+      </c>
+      <c r="I12">
+        <v>9900</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3500</v>
+      </c>
+      <c r="I13">
+        <v>7000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3300</v>
+      </c>
+      <c r="I14">
+        <v>3300</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>3500</v>
+      </c>
+      <c r="I15">
+        <v>14000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2700</v>
+      </c>
+      <c r="I16">
+        <v>8100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3500</v>
+      </c>
+      <c r="I17">
+        <v>10500</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2700</v>
+      </c>
+      <c r="I18">
+        <v>5400</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3500</v>
+      </c>
+      <c r="I19">
+        <v>10500</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>3500</v>
+      </c>
+      <c r="I20">
+        <v>7000</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3000</v>
+      </c>
+      <c r="I21">
+        <v>3000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>6969</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>6040</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>20876</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>7526</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>7703</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>3300</v>
+      </c>
+      <c r="I8">
+        <v>33000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3500</v>
+      </c>
+      <c r="I9">
+        <v>3500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3500</v>
+      </c>
+      <c r="I10">
+        <v>10500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3500</v>
+      </c>
+      <c r="I11">
+        <v>3500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3500</v>
+      </c>
+      <c r="I12">
+        <v>10500</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2700</v>
+      </c>
+      <c r="I13">
+        <v>5400</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2700</v>
+      </c>
+      <c r="I14">
+        <v>5400</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>3500</v>
+      </c>
+      <c r="I15">
+        <v>7000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3500</v>
+      </c>
+      <c r="I16">
+        <v>7000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>3300</v>
+      </c>
+      <c r="I17">
+        <v>6600</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3000</v>
+      </c>
+      <c r="I18">
+        <v>9000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3300</v>
+      </c>
+      <c r="I2">
+        <v>13200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>3500</v>
+      </c>
+      <c r="I3">
+        <v>14000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3500</v>
+      </c>
+      <c r="I4">
+        <v>10500</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2700</v>
+      </c>
+      <c r="I5">
+        <v>8100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2700</v>
+      </c>
+      <c r="I6">
+        <v>8100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3500</v>
+      </c>
+      <c r="I7">
+        <v>3500</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3500</v>
+      </c>
+      <c r="I8">
+        <v>10500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3000</v>
+      </c>
+      <c r="I9">
+        <v>3000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3500</v>
+      </c>
+      <c r="I10">
+        <v>7000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2700</v>
+      </c>
+      <c r="I11">
+        <v>5400</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3000</v>
+      </c>
+      <c r="I12">
+        <v>12000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>5028</v>
+      </c>
+      <c r="M2">
+        <v>600</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>6000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>36867</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>13006</v>
+      </c>
+      <c r="M5">
+        <v>6600</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3500</v>
+      </c>
+      <c r="I6">
+        <v>10500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>3920</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3300</v>
+      </c>
+      <c r="I7">
+        <v>3300</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>3920</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3300</v>
+      </c>
+      <c r="I8">
+        <v>13200</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3500</v>
+      </c>
+      <c r="I9">
+        <v>10500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10">
+        <v>12000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>6400</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>5201</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>6240</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>6120</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3500</v>
+      </c>
+      <c r="I6">
+        <v>10500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2700</v>
+      </c>
+      <c r="I7">
+        <v>8100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>2700</v>
+      </c>
+      <c r="I8">
+        <v>10800</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3500</v>
+      </c>
+      <c r="I9">
+        <v>10500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3500</v>
+      </c>
+      <c r="I10">
+        <v>3500</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5500</v>
+      </c>
+      <c r="I11">
+        <v>5500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11">
+        <v>12688</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5500</v>
+      </c>
+      <c r="I12">
+        <v>5500</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1900</v>
+        <v>606600</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2006-01-02.xlsx
+++ b/excel/2006-01-02.xlsx
@@ -69,7 +69,7 @@
     <t>業主</t>
   </si>
   <si>
-    <t>11426</t>
+    <t>1140206</t>
   </si>
   <si>
     <t>KEQ8006</t>
@@ -81,16 +81,16 @@
     <t/>
   </si>
   <si>
-    <t>11428</t>
-  </si>
-  <si>
-    <t>114224</t>
-  </si>
-  <si>
-    <t>114228</t>
-  </si>
-  <si>
-    <t>11431</t>
+    <t>1140208</t>
+  </si>
+  <si>
+    <t>1140224</t>
+  </si>
+  <si>
+    <t>1140228</t>
+  </si>
+  <si>
+    <t>1140301</t>
   </si>
   <si>
     <t>戲曲</t>
@@ -105,37 +105,37 @@
     <t>永豐哥</t>
   </si>
   <si>
-    <t>11432</t>
-  </si>
-  <si>
-    <t>11433</t>
+    <t>1140302</t>
+  </si>
+  <si>
+    <t>1140303</t>
   </si>
   <si>
     <t>玉成段</t>
   </si>
   <si>
-    <t>11434</t>
-  </si>
-  <si>
-    <t>11435</t>
-  </si>
-  <si>
-    <t>11436</t>
+    <t>1140304</t>
+  </si>
+  <si>
+    <t>1140305</t>
+  </si>
+  <si>
+    <t>1140306</t>
   </si>
   <si>
     <t>大龍</t>
   </si>
   <si>
-    <t>11437</t>
-  </si>
-  <si>
-    <t>11438</t>
-  </si>
-  <si>
-    <t>114310</t>
-  </si>
-  <si>
-    <t>114311</t>
+    <t>1140307</t>
+  </si>
+  <si>
+    <t>1140308</t>
+  </si>
+  <si>
+    <t>1140310</t>
+  </si>
+  <si>
+    <t>1140311</t>
   </si>
   <si>
     <t>南港調車場2</t>
@@ -150,7 +150,7 @@
     <t>林李勝</t>
   </si>
   <si>
-    <t>11425</t>
+    <t>1140205</t>
   </si>
   <si>
     <t>KEP0171</t>
@@ -159,10 +159,10 @@
     <t>王登翊</t>
   </si>
   <si>
-    <t>114218</t>
-  </si>
-  <si>
-    <t>114226</t>
+    <t>1140218</t>
+  </si>
+  <si>
+    <t>1140226</t>
   </si>
   <si>
     <t>辛亥段</t>
@@ -174,10 +174,10 @@
     <t>張浩宇</t>
   </si>
   <si>
-    <t>11427</t>
-  </si>
-  <si>
-    <t>114312</t>
+    <t>1140207</t>
+  </si>
+  <si>
+    <t>1140312</t>
   </si>
   <si>
     <t>KEA0379</t>
@@ -204,7 +204,7 @@
     <t>張國祥</t>
   </si>
   <si>
-    <t>11439</t>
+    <t>1140309</t>
   </si>
   <si>
     <t>學府路</t>
@@ -219,7 +219,7 @@
     <t>阿受</t>
   </si>
   <si>
-    <t>114315</t>
+    <t>1140315</t>
   </si>
   <si>
     <t>應收款總和</t>
